--- a/data/trans_dic/P25_6-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_6-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón)</t>
+          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -647,32 +672,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,37</t>
+          <t>0,0; 10,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,74</t>
+          <t>0,0; 12,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0,0; 11,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,05</t>
+          <t>0,0; 12,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,07</t>
+          <t>0,0; 6,68</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,46</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,29</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,53</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,1</t>
+          <t>0,0; 11,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,76</t>
+          <t>0,0; 11,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,73</t>
+          <t>0,0; 12,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 9,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>0,0; 9,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,66</t>
+          <t>0,0; 4,98</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,68</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 3,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 5,27</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,7</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 6,93</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,87</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>0,0; 3,11</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,23</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,17</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 3,13</t>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 3,24</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>2,58%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,92%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,89%</t>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 10,2</t>
+          <t>0,0; 7,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 7,97</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,2</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>0,0; 5,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,46</t>
+          <t>0,0; 6,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,77</t>
+          <t>0,96; 8,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,39</t>
+          <t>0,99; 9,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,56</t>
+          <t>1,02; 9,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,15</t>
+          <t>0,54; 5,09</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 5,92</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 5,93</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 5,7</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,63%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 29,13</t>
+          <t>4,53; 34,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 14,22</t>
+          <t>3,06; 16,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 25,04</t>
+          <t>4,36; 31,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 11,81</t>
+          <t>7,73; 32,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 16,06</t>
+          <t>1,92; 18,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 11,96</t>
+          <t>1,87; 19,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 17,42</t>
+          <t>0,0; 17,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 12,58</t>
+          <t>0,0; 13,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 14,47</t>
+          <t>4,75; 23,95</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 12,62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 22,3</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 22,39</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20,09%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>24,78%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,15; 34,25</t>
+          <t>7,47; 33,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,56; 34,74</t>
+          <t>9,83; 36,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,79; 27,63</t>
+          <t>4,88; 28,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,92; 30,41</t>
+          <t>13,02; 40,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,65; 24,14</t>
+          <t>9,08; 33,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,32; 30,15</t>
+          <t>9,38; 34,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,62; 27,95</t>
+          <t>8,94; 32,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,67; 25,86</t>
+          <t>12,08; 38,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,63; 26,11</t>
+          <t>11,95; 28,98</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 29,76</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 25,67</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15,46; 35,41</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,41; 9,19</t>
+          <t>3,12; 11,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,58</t>
+          <t>2,78; 7,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,93</t>
+          <t>2,36; 7,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,16</t>
+          <t>3,69; 10,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,46</t>
+          <t>2,48; 6,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,41</t>
+          <t>3,14; 7,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,06</t>
+          <t>2,34; 6,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,44</t>
+          <t>4,44; 10,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,38</t>
+          <t>3,27; 7,58</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 6,42</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 6,53</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 9,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece enfermedades del corazón (trastornos cardíacos/insufiencia cardíaca /insuficiencia cardíaca congestiva; angina de pecho; infarto de miocardio/ataque al corazón) (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3199</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3117</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5706</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3199</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2582</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3117</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5706</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14232</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14753</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13905</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17993</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16094</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14417</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15730</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19030</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2440</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5580</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19059</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17038</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18612</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 22532</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12343</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16628</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 20482</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15299</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18250</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2184</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5562</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2184</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5562</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9680</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11039</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11433</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1687; 16610</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12157</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11001</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10523</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1614; 13608</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1795</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3126</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7177</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5454</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7894</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8497</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>8972</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8580</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9910</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14458</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9003</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10373</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10104</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13631</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1784; 16527</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1706; 15801</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2140; 19680</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2186; 20627</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3540; 20563</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3259; 19482</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2857; 23481</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21627</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11409</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>15266</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>25405</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7421</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5822</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6033</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29048</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>17231</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>19275</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>31438</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7126; 54373</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4046; 22350</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5374; 38901</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11814; 50336</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2139; 20726</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1751; 18148</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15877</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 18351</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>12768; 64410</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7962; 28512</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8114; 48128</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16566; 64893</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>20472</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>18058</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>12241</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>35756</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27219</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>20614</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>20020</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>50640</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>47691</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>38672</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>32261</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>86396</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>8169; 36522</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8586; 31566</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4402; 25253</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17949; 55452</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12495; 46581</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9859; 35768</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>9887; 36482</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>25470; 80762</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>29506; 71569</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>24400; 57277</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>18166; 51528</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>53897; 123469</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>50155</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>34403</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>33735</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>66957</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>43910</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>40818</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>34553</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>75835</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>94065</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>75221</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>68288</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>142793</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>27806; 98518</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>21219; 55133</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>18539; 62633</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>38624; 105409</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>25465; 67406</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>26351; 61319</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19307; 56799</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>49088; 114381</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>62677; 145444</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>54612; 102846</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>45931; 105242</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>105979; 198963</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>